--- a/Timelog.xlsx
+++ b/Timelog.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windy\Documents\windyyih.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D834CD79-CB8A-4FD6-9B7F-A48023F44F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EEA509-F789-4103-85DF-9150ABCA6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="499" windowWidth="22974" windowHeight="14783" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$38</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="7">
   <si>
     <t>date</t>
   </si>
@@ -367,11 +370,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.4"/>
@@ -885,7 +888,145 @@
         <v>4</v>
       </c>
     </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
+        <v>44962</v>
+      </c>
+      <c r="B37">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>24</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
+        <v>44963</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="1">
+        <v>44964</v>
+      </c>
+      <c r="B39">
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>24</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <v>44965</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
+        <v>44965</v>
+      </c>
+      <c r="B41">
+        <v>14</v>
+      </c>
+      <c r="C41">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="1">
+        <v>44965</v>
+      </c>
+      <c r="B42">
+        <v>16</v>
+      </c>
+      <c r="C42">
+        <v>17</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
+        <v>44965</v>
+      </c>
+      <c r="B43">
+        <v>20</v>
+      </c>
+      <c r="C43">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" s="1">
+        <v>44966</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" s="1">
+        <v>44968</v>
+      </c>
+      <c r="B45">
+        <v>12</v>
+      </c>
+      <c r="C45">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
+        <v>44968</v>
+      </c>
+      <c r="B46">
+        <v>22</v>
+      </c>
+      <c r="C46">
+        <v>23.5</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:D38" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Timelog.xlsx
+++ b/Timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windy\Documents\windyyih.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EEA509-F789-4103-85DF-9150ABCA6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1F1E5F-97E1-4ED0-8FC5-D834FB2FF388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="499" windowWidth="22974" windowHeight="14783" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="7">
   <si>
     <t>date</t>
   </si>
@@ -370,11 +370,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
+      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.4"/>
@@ -1024,6 +1024,23 @@
       <c r="C46">
         <v>23.5</v>
       </c>
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
+        <v>44969</v>
+      </c>
+      <c r="B47">
+        <v>12</v>
+      </c>
+      <c r="C47">
+        <v>18.5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D38" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/Timelog.xlsx
+++ b/Timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windy\Documents\windyyih.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1F1E5F-97E1-4ED0-8FC5-D834FB2FF388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBA93FD-D63A-4A2C-B0F8-7DAE66CE552A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="499" windowWidth="22974" windowHeight="14783" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="7">
   <si>
     <t>date</t>
   </si>
@@ -370,11 +370,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.4"/>
@@ -1042,6 +1042,160 @@
         <v>6</v>
       </c>
     </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B48">
+        <v>9.5</v>
+      </c>
+      <c r="C48">
+        <v>11.5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B49">
+        <v>15</v>
+      </c>
+      <c r="C49">
+        <v>16.5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B50">
+        <v>19.5</v>
+      </c>
+      <c r="C50">
+        <v>21</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B51">
+        <v>20</v>
+      </c>
+      <c r="C51">
+        <v>23</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
+        <v>44972</v>
+      </c>
+      <c r="B52">
+        <v>12</v>
+      </c>
+      <c r="C52">
+        <v>13.5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53" s="1">
+        <v>44972</v>
+      </c>
+      <c r="B53">
+        <v>16</v>
+      </c>
+      <c r="C53">
+        <v>17</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
+        <v>44975</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>14.5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
+        <v>44975</v>
+      </c>
+      <c r="B55">
+        <v>15</v>
+      </c>
+      <c r="C55">
+        <v>17</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56" s="1">
+        <v>44975</v>
+      </c>
+      <c r="B56">
+        <v>20</v>
+      </c>
+      <c r="C56">
+        <v>24</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A57" s="1">
+        <v>44976</v>
+      </c>
+      <c r="B57">
+        <v>15</v>
+      </c>
+      <c r="C57">
+        <v>17</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58" s="1">
+        <v>44976</v>
+      </c>
+      <c r="B58">
+        <v>18</v>
+      </c>
+      <c r="C58">
+        <v>24</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D38" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
